--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12855"/>
+    <workbookView windowWidth="27975" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>1m</t>
   </si>
@@ -46,7 +47,28 @@
     <t>10m</t>
   </si>
   <si>
+    <t>13m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
   <si>
     <t>Std Dev</t>
@@ -54,16 +76,23 @@
   <si>
     <t>Reads</t>
   </si>
+  <si>
+    <t>Std dev</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -84,29 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -115,91 +121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +143,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,43 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +338,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,19 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,37 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,42 +428,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -440,17 +469,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -481,10 +499,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -513,6 +544,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -523,17 +563,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,30 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -597,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,186 +685,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,6 +991,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" altLang="en-US"/>
+              <a:t>Strength x distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -892,25 +1026,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -931,16 +1046,28 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$53:$L$53</c:f>
+              <c:f>Sheet1!$C$57:$Q$57</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1m</c:v>
                 </c:pt>
@@ -971,44 +1098,74 @@
                 <c:pt idx="9">
                   <c:v>10m</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>13m</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15m</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19m</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20m</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30m</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$54:$L$54</c:f>
+              <c:f>Sheet1!$C$59:$Q$59</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-38.6595744680851</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-52</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-42.125</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-48.2857142857143</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-45.1489361702128</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-38.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-40</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-40.0243902439024</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>-41.2682926829268</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-45.1463414634146</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-46.9090909090909</c:v>
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="0.0_ ">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="0.0_ ">
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,13 +1180,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="238716398"/>
-        <c:axId val="434414826"/>
+        <c:axId val="275307102"/>
+        <c:axId val="464291674"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="238716398"/>
+        <c:axId val="275307102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1227,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434414826"/>
+        <c:crossAx val="464291674"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1235,304 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434414826"/>
+        <c:axId val="464291674"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275307102"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" altLang="en-US"/>
+              <a:t>Strength x Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$61:$H$61</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$63:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="221627639"/>
+        <c:axId val="21755883"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221627639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21755883"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21755883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1582,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238716398"/>
+        <c:crossAx val="221627639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,6 +1631,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1732,29 +2226,580 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>791845</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6829425" y="12107545"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="15135225" y="4598670"/>
+        <a:ext cx="7745095" cy="5061585"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>808355</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7513955" y="5112385"/>
+        <a:ext cx="6784340" cy="5377180"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2025,1661 +3070,3142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L56"/>
+  <dimension ref="B3:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="12" width="14.2"/>
+    <col min="3" max="15" width="9.7" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12">
-      <c r="C2" s="1" t="s">
+    <row r="3" ht="16.5"/>
+    <row r="4" spans="3:15">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="3:12">
-      <c r="C3" s="3">
-        <v>-46</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D5" s="10">
         <v>-50</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="10">
         <v>-47</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5" s="10">
         <v>-48</v>
       </c>
-      <c r="G3" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G5" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I5" s="10">
         <v>-45</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J5" s="10">
         <v>-44</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K5" s="10">
         <v>-48</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L5" s="10">
         <v>-51</v>
       </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="3">
-        <v>-46</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="M5" s="10">
+        <v>-75</v>
+      </c>
+      <c r="N5" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O5" s="11">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D6" s="10">
         <v>-50</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="10">
         <v>-47</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="10">
         <v>-48</v>
       </c>
-      <c r="G4" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G6" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I6" s="10">
         <v>-45</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J6" s="10">
         <v>-44</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K6" s="10">
         <v>-48</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L6" s="10">
         <v>-51</v>
       </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="3">
-        <v>-46</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="M6" s="10">
+        <v>-75</v>
+      </c>
+      <c r="N6" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O6" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D7" s="10">
         <v>-50</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="10">
         <v>-47</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F7" s="10">
         <v>-48</v>
       </c>
-      <c r="G5" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G7" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H7" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I7" s="10">
         <v>-39</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J7" s="10">
         <v>-44</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K7" s="10">
         <v>-40</v>
       </c>
-      <c r="L5" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="3">
-        <v>-46</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="L7" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M7" s="10">
+        <v>-75</v>
+      </c>
+      <c r="N7" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D8" s="10">
         <v>-50</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="10">
         <v>-47</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="10">
         <v>-48</v>
       </c>
-      <c r="G6" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G8" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H8" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I8" s="10">
         <v>-39</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J8" s="10">
         <v>-44</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K8" s="10">
         <v>-40</v>
       </c>
-      <c r="L6" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="3">
+      <c r="L8" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M8" s="10">
+        <v>-75</v>
+      </c>
+      <c r="N8" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O8" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="2">
         <v>-38</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D9" s="10">
         <v>-50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="10">
         <v>-47</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="10">
         <v>-48</v>
       </c>
-      <c r="G7" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G9" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I9" s="10">
         <v>-39</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J9" s="10">
         <v>-44</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K9" s="10">
         <v>-40</v>
       </c>
-      <c r="L7" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="3">
+      <c r="L9" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M9" s="10">
+        <v>-75</v>
+      </c>
+      <c r="N9" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O9" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="2">
         <v>-38</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D10" s="10">
         <v>-50</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E10" s="10">
         <v>-47</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F10" s="10">
         <v>-48</v>
       </c>
-      <c r="G8" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-46</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G10" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-46</v>
+      </c>
+      <c r="I10" s="10">
         <v>-39</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J10" s="10">
         <v>-44</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K10" s="10">
         <v>-40</v>
       </c>
-      <c r="L8" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="3">
+      <c r="L10" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N10" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O10" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="2">
         <v>-38</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D11" s="10">
         <v>-56</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="10">
         <v>-47</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="10">
         <v>-48</v>
       </c>
-      <c r="G9" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G11" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H11" s="10">
         <v>-39</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I11" s="10">
         <v>-39</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J11" s="10">
         <v>-43</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K11" s="10">
         <v>-40</v>
       </c>
-      <c r="L9" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="3">
+      <c r="L11" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M11" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N11" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="2">
         <v>-38</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D12" s="10">
         <v>-56</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="10">
         <v>-47</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F12" s="10">
         <v>-48</v>
       </c>
-      <c r="G10" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G12" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H12" s="10">
         <v>-39</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I12" s="10">
         <v>-39</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J12" s="10">
         <v>-43</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K12" s="10">
         <v>-40</v>
       </c>
-      <c r="L10" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="3">
+      <c r="L12" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M12" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N12" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O12" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="2">
         <v>-38</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="10">
         <v>-56</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="10">
         <v>-47</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="10">
         <v>-48</v>
       </c>
-      <c r="G11" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G13" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H13" s="10">
         <v>-39</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I13" s="10">
         <v>-40</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J13" s="10">
         <v>-43</v>
       </c>
-      <c r="K11" s="4">
-        <v>-47</v>
-      </c>
-      <c r="L11" s="10">
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="3">
-        <v>-38</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-56</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-47</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-48</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-45</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-39</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-40</v>
-      </c>
-      <c r="J12" s="4">
-        <v>-43</v>
-      </c>
-      <c r="K12" s="4">
-        <v>-47</v>
-      </c>
-      <c r="L12" s="10">
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="3">
-        <v>-33</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-56</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-47</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-48</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-45</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-39</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-40</v>
-      </c>
-      <c r="J13" s="4">
-        <v>-43</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <v>-47</v>
       </c>
       <c r="L13" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="3">
-        <v>-33</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="M13" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N13" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O13" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="2">
+        <v>-38</v>
+      </c>
+      <c r="D14" s="10">
         <v>-56</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10">
         <v>-47</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>-48</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>-45</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <v>-39</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="10">
         <v>-40</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="10">
         <v>-43</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="10">
         <v>-47</v>
       </c>
       <c r="L14" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="3">
+      <c r="M14" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N14" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O14" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="2">
         <v>-33</v>
       </c>
-      <c r="D15" s="4">
-        <v>-55</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="10">
+        <v>-56</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-47</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-48</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H15" s="10">
         <v>-39</v>
       </c>
-      <c r="F15" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-45</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-38</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="I15" s="10">
         <v>-40</v>
       </c>
-      <c r="J15" s="4">
-        <v>-41</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="10">
+        <v>-43</v>
+      </c>
+      <c r="K15" s="10">
         <v>-47</v>
       </c>
       <c r="L15" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="3">
+      <c r="M15" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O15" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="2">
         <v>-33</v>
       </c>
-      <c r="D16" s="4">
-        <v>-55</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="10">
+        <v>-56</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-47</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-48</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H16" s="10">
         <v>-39</v>
       </c>
-      <c r="F16" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G16" s="4">
-        <v>-45</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-38</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="I16" s="10">
         <v>-40</v>
       </c>
-      <c r="J16" s="4">
-        <v>-41</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="10">
+        <v>-43</v>
+      </c>
+      <c r="K16" s="10">
         <v>-47</v>
       </c>
       <c r="L16" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="3">
+      <c r="M16" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N16" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O16" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17" s="2">
         <v>-33</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="10">
         <v>-55</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="10">
         <v>-39</v>
       </c>
-      <c r="F17" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G17" s="10">
         <v>-45</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <v>-38</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="10">
         <v>-40</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="10">
         <v>-41</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="10">
         <v>-47</v>
       </c>
       <c r="L17" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="3">
+      <c r="M17" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N17" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O17" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="C18" s="2">
         <v>-33</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="10">
         <v>-55</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="10">
         <v>-39</v>
       </c>
-      <c r="F18" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G18" s="4">
-        <v>-44</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="F18" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H18" s="10">
         <v>-38</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="10">
         <v>-40</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="10">
         <v>-41</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="10">
         <v>-47</v>
       </c>
       <c r="L18" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="3">
-        <v>-37</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="M18" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N18" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O18" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="C19" s="2">
+        <v>-33</v>
+      </c>
+      <c r="D19" s="10">
         <v>-55</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="10">
         <v>-39</v>
       </c>
-      <c r="F19" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G19" s="4">
-        <v>-44</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H19" s="10">
         <v>-38</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="10">
         <v>-40</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="10">
         <v>-41</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="10">
         <v>-47</v>
       </c>
       <c r="L19" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" s="3">
-        <v>-37</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="M19" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N19" s="10">
+        <v>-65</v>
+      </c>
+      <c r="O19" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="2">
+        <v>-33</v>
+      </c>
+      <c r="D20" s="10">
         <v>-55</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="10">
         <v>-39</v>
       </c>
-      <c r="F20" s="4">
-        <v>-46</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G20" s="10">
         <v>-44</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <v>-38</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="10">
         <v>-40</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="10">
         <v>-41</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="10">
         <v>-47</v>
       </c>
       <c r="L20" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="C21" s="3">
+      <c r="M20" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N20" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O20" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="2">
         <v>-37</v>
       </c>
-      <c r="D21" s="4">
-        <v>-45</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="10">
+        <v>-55</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-39</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H21" s="10">
+        <v>-38</v>
+      </c>
+      <c r="I21" s="10">
         <v>-40</v>
       </c>
-      <c r="F21" s="4">
-        <v>-47</v>
-      </c>
-      <c r="G21" s="4">
-        <v>-44</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-44</v>
-      </c>
-      <c r="I21" s="4">
-        <v>-40</v>
-      </c>
-      <c r="J21" s="4">
-        <v>-42</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J21" s="10">
+        <v>-41</v>
+      </c>
+      <c r="K21" s="10">
         <v>-47</v>
       </c>
       <c r="L21" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="C22" s="3">
+      <c r="M21" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N21" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O21" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" s="2">
         <v>-37</v>
       </c>
-      <c r="D22" s="4">
-        <v>-45</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="10">
+        <v>-55</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-39</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-46</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H22" s="10">
+        <v>-38</v>
+      </c>
+      <c r="I22" s="10">
         <v>-40</v>
       </c>
-      <c r="F22" s="4">
-        <v>-47</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-44</v>
-      </c>
-      <c r="H22" s="4">
-        <v>-44</v>
-      </c>
-      <c r="I22" s="4">
-        <v>-40</v>
-      </c>
-      <c r="J22" s="4">
-        <v>-42</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="10">
+        <v>-41</v>
+      </c>
+      <c r="K22" s="10">
         <v>-47</v>
       </c>
       <c r="L22" s="10">
         <v>-47</v>
       </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="C23" s="3">
+      <c r="M22" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N22" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O22" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="2">
         <v>-37</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="10">
         <v>-45</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="10">
         <v>-40</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="10">
         <v>-47</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="10">
         <v>-44</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="10">
         <v>-44</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="10">
         <v>-40</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="10">
         <v>-42</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="10">
+        <v>-47</v>
+      </c>
+      <c r="L23" s="10">
+        <v>-47</v>
+      </c>
+      <c r="M23" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N23" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O23" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D24" s="10">
         <v>-45</v>
       </c>
-      <c r="L23" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="3">
+      <c r="E24" s="10">
+        <v>-40</v>
+      </c>
+      <c r="F24" s="10">
+        <v>-47</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H24" s="10">
+        <v>-44</v>
+      </c>
+      <c r="I24" s="10">
+        <v>-40</v>
+      </c>
+      <c r="J24" s="10">
+        <v>-42</v>
+      </c>
+      <c r="K24" s="10">
+        <v>-47</v>
+      </c>
+      <c r="L24" s="10">
+        <v>-47</v>
+      </c>
+      <c r="M24" s="10">
+        <v>-69</v>
+      </c>
+      <c r="N24" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O24" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="2">
         <v>-37</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="10">
         <v>-45</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="10">
         <v>-40</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="10">
         <v>-47</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H25" s="10">
+        <v>-44</v>
+      </c>
+      <c r="I25" s="10">
+        <v>-40</v>
+      </c>
+      <c r="J25" s="10">
+        <v>-42</v>
+      </c>
+      <c r="K25" s="10">
         <v>-45</v>
       </c>
-      <c r="H24" s="4">
+      <c r="L25" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M25" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N25" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O25" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D26" s="10">
+        <v>-45</v>
+      </c>
+      <c r="E26" s="10">
+        <v>-40</v>
+      </c>
+      <c r="F26" s="10">
+        <v>-47</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H26" s="10">
         <v>-44</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I26" s="10">
         <v>-40</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J26" s="10">
         <v>-42</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K26" s="10">
         <v>-45</v>
       </c>
-      <c r="L24" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="3">
+      <c r="L26" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M26" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N26" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O26" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" s="2">
         <v>-38</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D27" s="10">
         <v>-45</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="10">
         <v>-40</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="10">
         <v>-47</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G27" s="10">
         <v>-45</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H27" s="10">
         <v>-44</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I27" s="10">
         <v>-40</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J27" s="10">
         <v>-42</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K27" s="10">
         <v>-45</v>
       </c>
-      <c r="L25" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="3">
+      <c r="L27" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M27" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N27" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O27" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="C28" s="2">
         <v>-38</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D28" s="10">
         <v>-45</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="10">
         <v>-40</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F28" s="10">
         <v>-47</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G28" s="10">
         <v>-45</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H28" s="10">
         <v>-44</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I28" s="10">
         <v>-40</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J28" s="10">
         <v>-42</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K28" s="10">
         <v>-45</v>
       </c>
-      <c r="L26" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="C27" s="3">
+      <c r="L28" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M28" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N28" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O28" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="C29" s="2">
         <v>-38</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D29" s="10">
         <v>-54</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="10">
         <v>-42</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F29" s="10">
         <v>-48</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G29" s="10">
         <v>-45</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H29" s="10">
         <v>-39</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I29" s="10">
         <v>-40</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J29" s="10">
         <v>-36</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K29" s="10">
         <v>-45</v>
       </c>
-      <c r="L27" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="3">
+      <c r="L29" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M29" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N29" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O29" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="2">
         <v>-38</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D30" s="10">
         <v>-54</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="10">
         <v>-42</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F30" s="10">
         <v>-48</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G30" s="10">
         <v>-45</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H30" s="10">
         <v>-39</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I30" s="10">
         <v>-40</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J30" s="10">
         <v>-36</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K30" s="10">
         <v>-45</v>
       </c>
-      <c r="L28" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" s="3">
+      <c r="L30" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M30" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N30" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O30" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="2">
         <v>-38</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D31" s="10">
         <v>-54</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E31" s="10">
         <v>-42</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F31" s="10">
         <v>-48</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G31" s="10">
         <v>-45</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H31" s="10">
         <v>-39</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I31" s="10">
         <v>-39</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J31" s="10">
         <v>-36</v>
       </c>
-      <c r="K29" s="4">
-        <v>-45</v>
-      </c>
-      <c r="L29" s="10">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="3">
-        <v>-38</v>
-      </c>
-      <c r="D30" s="4">
-        <v>-54</v>
-      </c>
-      <c r="E30" s="4">
-        <v>-42</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-48</v>
-      </c>
-      <c r="G30" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-39</v>
-      </c>
-      <c r="I30" s="4">
-        <v>-39</v>
-      </c>
-      <c r="J30" s="4">
-        <v>-36</v>
-      </c>
-      <c r="K30" s="4">
-        <v>-45</v>
-      </c>
-      <c r="L30" s="10">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="3">
-        <v>-37</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-54</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-42</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-48</v>
-      </c>
-      <c r="G31" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-39</v>
-      </c>
-      <c r="I31" s="4">
-        <v>-39</v>
-      </c>
-      <c r="J31" s="4">
-        <v>-36</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="K31" s="10">
         <v>-45</v>
       </c>
       <c r="L31" s="10">
         <v>-49</v>
       </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="3">
-        <v>-37</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="M31" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N31" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O31" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="2">
+        <v>-38</v>
+      </c>
+      <c r="D32" s="10">
         <v>-54</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="10">
         <v>-42</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="10">
         <v>-48</v>
       </c>
-      <c r="G32" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H32" s="10">
         <v>-39</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="10">
         <v>-39</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="10">
         <v>-36</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="10">
         <v>-45</v>
       </c>
       <c r="L32" s="10">
         <v>-49</v>
       </c>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33" s="3">
+      <c r="M32" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N32" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O32" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="2">
         <v>-37</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4">
-        <v>-40</v>
-      </c>
-      <c r="F33" s="4">
-        <v>-47</v>
-      </c>
-      <c r="G33" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H33" s="4">
-        <v>-38</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="D33" s="10">
+        <v>-54</v>
+      </c>
+      <c r="E33" s="10">
+        <v>-42</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-48</v>
+      </c>
+      <c r="G33" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H33" s="10">
         <v>-39</v>
       </c>
-      <c r="J33" s="4">
-        <v>-41</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="I33" s="10">
+        <v>-39</v>
+      </c>
+      <c r="J33" s="10">
+        <v>-36</v>
+      </c>
+      <c r="K33" s="10">
         <v>-45</v>
       </c>
       <c r="L33" s="10">
         <v>-49</v>
       </c>
-    </row>
-    <row r="34" spans="3:12">
-      <c r="C34" s="3">
+      <c r="M33" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N33" s="10">
+        <v>-66</v>
+      </c>
+      <c r="O33" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="2">
         <v>-37</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4">
-        <v>-40</v>
-      </c>
-      <c r="F34" s="4">
-        <v>-47</v>
-      </c>
-      <c r="G34" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H34" s="4">
-        <v>-38</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="D34" s="10">
+        <v>-54</v>
+      </c>
+      <c r="E34" s="10">
+        <v>-42</v>
+      </c>
+      <c r="F34" s="10">
+        <v>-48</v>
+      </c>
+      <c r="G34" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H34" s="10">
         <v>-39</v>
       </c>
-      <c r="J34" s="4">
-        <v>-41</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="I34" s="10">
+        <v>-39</v>
+      </c>
+      <c r="J34" s="10">
+        <v>-36</v>
+      </c>
+      <c r="K34" s="10">
         <v>-45</v>
       </c>
       <c r="L34" s="10">
         <v>-49</v>
       </c>
-    </row>
-    <row r="35" spans="3:12">
-      <c r="C35" s="3">
+      <c r="M34" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="2">
         <v>-37</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10">
         <v>-40</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="10">
         <v>-47</v>
       </c>
-      <c r="G35" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H35" s="10">
         <v>-38</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="10">
+        <v>-39</v>
+      </c>
+      <c r="J35" s="10">
         <v>-41</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="10">
+        <v>-45</v>
+      </c>
+      <c r="L35" s="10">
+        <v>-49</v>
+      </c>
+      <c r="M35" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10">
+        <v>-40</v>
+      </c>
+      <c r="F36" s="10">
+        <v>-47</v>
+      </c>
+      <c r="G36" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H36" s="10">
+        <v>-38</v>
+      </c>
+      <c r="I36" s="10">
+        <v>-39</v>
+      </c>
+      <c r="J36" s="10">
         <v>-41</v>
       </c>
-      <c r="K35" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L35" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="3">
+      <c r="K36" s="10">
+        <v>-45</v>
+      </c>
+      <c r="L36" s="10">
+        <v>-49</v>
+      </c>
+      <c r="M36" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="2">
         <v>-37</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
         <v>-40</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="10">
         <v>-47</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H37" s="10">
+        <v>-38</v>
+      </c>
+      <c r="I37" s="10">
+        <v>-41</v>
+      </c>
+      <c r="J37" s="10">
+        <v>-41</v>
+      </c>
+      <c r="K37" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L37" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M37" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <v>-40</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-47</v>
+      </c>
+      <c r="G38" s="10">
         <v>-44</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H38" s="10">
         <v>-38</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I38" s="10">
         <v>-41</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J38" s="10">
         <v>-41</v>
       </c>
-      <c r="K36" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L36" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="3">
+      <c r="K38" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L38" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M38" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="2">
         <v>-47</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
         <v>-40</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F39" s="10">
         <v>-47</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G39" s="10">
         <v>-44</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H39" s="10">
         <v>-38</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I39" s="10">
         <v>-41</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J39" s="10">
         <v>-41</v>
       </c>
-      <c r="K37" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L37" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="3">
+      <c r="K39" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L39" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M39" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="2">
         <v>-47</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10">
         <v>-40</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="10">
         <v>-47</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G40" s="10">
         <v>-44</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H40" s="10">
         <v>-38</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I40" s="10">
         <v>-41</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J40" s="10">
         <v>-41</v>
       </c>
-      <c r="K38" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L38" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" s="3">
+      <c r="K40" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L40" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M40" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="2">
         <v>-47</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
         <v>-41</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F41" s="10">
         <v>-54</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G41" s="10">
         <v>-44</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H41" s="10">
         <v>-38</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I41" s="10">
         <v>-41</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J41" s="10">
         <v>-42</v>
       </c>
-      <c r="K39" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L39" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12">
-      <c r="C40" s="3">
+      <c r="K41" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L41" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M41" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="2">
         <v>-47</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
         <v>-41</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F42" s="10">
         <v>-54</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G42" s="10">
         <v>-44</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H42" s="10">
         <v>-38</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I42" s="10">
         <v>-41</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J42" s="10">
         <v>-42</v>
       </c>
-      <c r="K40" s="4">
-        <v>-46</v>
-      </c>
-      <c r="L40" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12">
-      <c r="C41" s="3">
+      <c r="K42" s="10">
+        <v>-46</v>
+      </c>
+      <c r="L42" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M42" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="2">
         <v>-47</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10">
         <v>-41</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F43" s="10">
         <v>-54</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G43" s="10">
         <v>-44</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H43" s="10">
         <v>-38</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I43" s="10">
         <v>-39</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J43" s="10">
         <v>-42</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K43" s="10">
         <v>-45</v>
       </c>
-      <c r="L41" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12">
-      <c r="C42" s="3">
+      <c r="L43" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M43" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="2">
         <v>-47</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10">
         <v>-41</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F44" s="10">
         <v>-54</v>
       </c>
-      <c r="G42" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G44" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H44" s="10">
         <v>-38</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I44" s="10">
         <v>-39</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J44" s="10">
         <v>-42</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K44" s="10">
         <v>-45</v>
       </c>
-      <c r="L42" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12">
-      <c r="C43" s="3">
+      <c r="L44" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M44" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="2">
         <v>-36</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10">
         <v>-41</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F45" s="10">
         <v>-54</v>
       </c>
-      <c r="G43" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G45" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H45" s="10">
         <v>-38</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I45" s="10">
         <v>-39</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J45" s="10">
         <v>-42</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K45" s="10">
         <v>-45</v>
       </c>
-      <c r="L43" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12">
-      <c r="C44" s="3">
+      <c r="L45" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M45" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="2">
         <v>-36</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10">
         <v>-41</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F46" s="10">
         <v>-54</v>
       </c>
-      <c r="G44" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G46" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H46" s="10">
         <v>-38</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="C45" s="3">
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M46" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="2">
         <v>-36</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
         <v>-41</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H47" s="10">
         <v>-38</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12">
-      <c r="C46" s="3">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M47" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="2">
         <v>-36</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
         <v>-41</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H48" s="10">
         <v>-38</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12">
-      <c r="C47" s="3">
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10">
+        <v>-46</v>
+      </c>
+      <c r="M48" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="2">
         <v>-36</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
         <v>-41</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4">
-        <v>-46</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H49" s="10">
         <v>-38</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="3:12">
-      <c r="C48" s="3">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="2">
         <v>-36</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10">
         <v>-41</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10">
         <v>-44</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H50" s="10">
         <v>-38</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="3:12">
-      <c r="C49" s="3">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="2">
         <v>-37</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>-41</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10">
         <v>-44</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H51" s="10">
         <v>-38</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" ht="16.5" spans="3:12">
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="11"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="2"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10">
         <v>-41</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10">
         <v>-38</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" ht="16.5"/>
-    <row r="53" spans="3:12">
-      <c r="C53" s="1" t="s">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="2"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10">
+        <v>-71</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="54" ht="16.5" spans="3:15">
+      <c r="C54" s="4"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="22">
+        <v>-71</v>
+      </c>
+      <c r="N54" s="22"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="56" ht="16.5"/>
+    <row r="57" spans="2:17">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D57" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F57" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G57" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J57" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K57" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L57" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" t="s">
+      <c r="M57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="7">
-        <f>AVERAGE(C3:C50)</f>
+      <c r="N57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6">
+        <f>AVERAGE(C5:C54)</f>
         <v>-38.6595744680851</v>
       </c>
-      <c r="D54" s="7">
-        <f t="shared" ref="D54:L54" si="0">AVERAGE(D3:D50)</f>
+      <c r="D58" s="17">
+        <f t="shared" ref="D58:O58" si="0">AVERAGE(D5:D54)</f>
         <v>-52</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E58" s="17">
         <f t="shared" si="0"/>
         <v>-42.125</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F58" s="17">
         <f t="shared" si="0"/>
         <v>-48.2857142857143</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G58" s="17">
         <f t="shared" si="0"/>
         <v>-45.1489361702128</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H58" s="17">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I58" s="17">
         <f t="shared" si="0"/>
         <v>-40.0243902439024</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J58" s="17">
         <f t="shared" si="0"/>
         <v>-41.2682926829268</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K58" s="17">
         <f t="shared" si="0"/>
         <v>-45.1463414634146</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L58" s="17">
         <f t="shared" si="0"/>
         <v>-46.9090909090909</v>
       </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="7">
-        <f>STDEV(C3:C50)</f>
+      <c r="M58" s="17">
+        <f t="shared" si="0"/>
+        <v>-70.8</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="0"/>
+        <v>-65.4827586206897</v>
+      </c>
+      <c r="O58" s="18">
+        <f t="shared" si="0"/>
+        <v>-72.8333333333333</v>
+      </c>
+      <c r="P58" s="26">
+        <v>-67</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>-68.9285714285714</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <f>MEDIAN(C5:C54)</f>
+        <v>-37</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" ref="D59:O59" si="1">MEDIAN(D5:D54)</f>
+        <v>-54</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="1"/>
+        <v>-41</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="1"/>
+        <v>-48</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="1"/>
+        <v>-38.5</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="1"/>
+        <v>-42</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="1"/>
+        <v>-71</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="1"/>
+        <v>-65</v>
+      </c>
+      <c r="O59" s="11">
+        <f t="shared" si="1"/>
+        <v>-73</v>
+      </c>
+      <c r="P59" s="26">
+        <v>-67</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="6">
+        <f>STDEV(C5:C54)</f>
         <v>4.44422730479948</v>
       </c>
-      <c r="D55" s="7">
-        <f t="shared" ref="D55:L55" si="1">STDEV(D3:D50)</f>
+      <c r="D60" s="17">
+        <f t="shared" ref="D60:O60" si="2">STDEV(D5:D54)</f>
         <v>4.11892185424527</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="1"/>
+      <c r="E60" s="17">
+        <f t="shared" si="2"/>
         <v>2.96522396986962</v>
       </c>
-      <c r="F55" s="7">
-        <f t="shared" si="1"/>
+      <c r="F60" s="17">
+        <f t="shared" si="2"/>
         <v>2.46225867244586</v>
       </c>
-      <c r="G55" s="7">
-        <f t="shared" si="1"/>
+      <c r="G60" s="17">
+        <f t="shared" si="2"/>
         <v>0.85918878333135</v>
       </c>
-      <c r="H55" s="7">
-        <f t="shared" si="1"/>
+      <c r="H60" s="17">
+        <f t="shared" si="2"/>
         <v>2.98934277271208</v>
       </c>
-      <c r="I55" s="7">
-        <f t="shared" si="1"/>
+      <c r="I60" s="17">
+        <f t="shared" si="2"/>
         <v>1.33206240240555</v>
       </c>
-      <c r="J55" s="7">
-        <f t="shared" si="1"/>
+      <c r="J60" s="17">
+        <f t="shared" si="2"/>
         <v>2.42924257994032</v>
       </c>
-      <c r="K55" s="7">
-        <f t="shared" si="1"/>
+      <c r="K60" s="17">
+        <f t="shared" si="2"/>
         <v>2.35118029518959</v>
       </c>
-      <c r="L55" s="7">
-        <f t="shared" si="1"/>
+      <c r="L60" s="17">
+        <f t="shared" si="2"/>
         <v>1.36088517394364</v>
       </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="8">
-        <f>COUNT(C3:C50)</f>
+      <c r="M60" s="17">
+        <f t="shared" si="2"/>
+        <v>1.67819144635296</v>
+      </c>
+      <c r="N60" s="17">
+        <f t="shared" si="2"/>
+        <v>0.508547627715608</v>
+      </c>
+      <c r="O60" s="18">
+        <f t="shared" si="2"/>
+        <v>0.912870929175276</v>
+      </c>
+      <c r="P60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>2.22266950765509</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="2:17">
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="23">
+        <f>COUNT(C5:C54)</f>
         <v>47</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" ref="D56:L56" si="2">COUNT(D3:D50)</f>
+      <c r="D61" s="24">
+        <f t="shared" ref="D61:O61" si="3">COUNT(D5:D54)</f>
         <v>30</v>
       </c>
-      <c r="E56" s="8">
-        <f t="shared" si="2"/>
+      <c r="E61" s="24">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="F56" s="8">
-        <f t="shared" si="2"/>
+      <c r="F61" s="24">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="G56" s="8">
-        <f t="shared" si="2"/>
+      <c r="G61" s="24">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="H56" s="8">
-        <f t="shared" si="2"/>
+      <c r="H61" s="24">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="I56" s="8">
-        <f t="shared" si="2"/>
+      <c r="I61" s="24">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="J56" s="8">
-        <f t="shared" si="2"/>
+      <c r="J61" s="24">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="K56" s="8">
-        <f t="shared" si="2"/>
+      <c r="K61" s="24">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="L56" s="8">
-        <f t="shared" si="2"/>
+      <c r="L61" s="24">
+        <f t="shared" si="3"/>
         <v>44</v>
+      </c>
+      <c r="M61" s="24">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N61" s="24">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="O61" s="27">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P61" s="26">
+        <v>13</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="2" ht="16.5"/>
+    <row r="3" spans="4:8">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H4" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8">
+      <c r="D5" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H5" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H6" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H7" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H8" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H10" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-57</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E17" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F20" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>-53</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F24" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E25" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F25" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="D26" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E26" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F26" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8">
+      <c r="D27" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E27" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F27" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E28" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F28" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E29" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F29" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="D30" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E30" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F30" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E31" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F31" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E32" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F32" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E33" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F33" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E34" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F34" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E35" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F35" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E36" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F36" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E37" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F37" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E38" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E39" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F39" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F40" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E41" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F41" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E42" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F42" s="10">
+        <v>-51</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E43" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E44" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E45" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="D46" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E46" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E47" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8">
+      <c r="D48" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E48" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
+      <c r="D49" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E49" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8">
+      <c r="D50" s="2"/>
+      <c r="E50" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" s="2"/>
+      <c r="E51" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="D52" s="2"/>
+      <c r="E52" s="10">
+        <v>-48</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="D53" s="3"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="D54" s="3"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="D55" s="3"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8">
+      <c r="D56" s="3"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="D57" s="3"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8">
+      <c r="D58" s="3"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="4:8">
+      <c r="D59" s="4"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5"/>
+    <row r="61" spans="3:8">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6">
+        <f>AVERAGE(D4:D59)</f>
+        <v>-45.5652173913044</v>
+      </c>
+      <c r="E62" s="17">
+        <f>AVERAGE(E4:E59)</f>
+        <v>-50.0408163265306</v>
+      </c>
+      <c r="F62" s="17">
+        <f>AVERAGE(F4:F59)</f>
+        <v>-52.5384615384615</v>
+      </c>
+      <c r="G62" s="17">
+        <f>AVERAGE(G4:G59)</f>
+        <v>-67</v>
+      </c>
+      <c r="H62" s="18">
+        <f>AVERAGE(H4:H59)</f>
+        <v>-68.9285714285714</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="6">
+        <f>MEDIAN(D4:D59)</f>
+        <v>-50</v>
+      </c>
+      <c r="E63" s="17">
+        <f>MEDIAN(E4:E59)</f>
+        <v>-48</v>
+      </c>
+      <c r="F63" s="17">
+        <f>MEDIAN(F4:F59)</f>
+        <v>-51</v>
+      </c>
+      <c r="G63" s="17">
+        <f>MEDIAN(G4:G59)</f>
+        <v>-67</v>
+      </c>
+      <c r="H63" s="18">
+        <f>MEDIAN(H4:H59)</f>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="7">
+        <f>STDEV(D4:D59)</f>
+        <v>5.85624898496581</v>
+      </c>
+      <c r="E64" s="19">
+        <f>STDEV(E4:E59)</f>
+        <v>2.48293495412074</v>
+      </c>
+      <c r="F64" s="19">
+        <f>STDEV(F4:F59)</f>
+        <v>2.65415418032854</v>
+      </c>
+      <c r="G64" s="19">
+        <f>STDEV(G4:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="20">
+        <f>STDEV(H4:H59)</f>
+        <v>2.22266950765509</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="3:8">
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="21">
+        <f>COUNT(D4:D59)</f>
+        <v>46</v>
+      </c>
+      <c r="E65" s="22">
+        <f>COUNT(E4:E59)</f>
+        <v>49</v>
+      </c>
+      <c r="F65" s="22">
+        <f>COUNT(F4:F59)</f>
+        <v>39</v>
+      </c>
+      <c r="G65" s="22">
+        <f>COUNT(G4:G59)</f>
+        <v>13</v>
+      </c>
+      <c r="H65" s="14">
+        <f>COUNT(H4:H59)</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
